--- a/data/Map135.xlsx
+++ b/data/Map135.xlsx
@@ -760,7 +760,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A98"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,493 +768,787 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
         <v>97</v>
       </c>
     </row>

--- a/data/Map135.xlsx
+++ b/data/Map135.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D409E299-AFE9-4882-B63C-F62DDB9673E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="188">
   <si>
     <t>自動実行</t>
   </si>
@@ -422,22 +428,406 @@
   </si>
   <si>
     <t>梯子</t>
+  </si>
+  <si>
+    <t>ED4　Escape Successful, Rescue Mission Failed</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Dammit! I can't find them anywhere!
+They escaped, nyan!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;What do we do with Ms. Cocky Cow Tits here, nya?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;There's still some time.
+We could sate our hunger once more, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyahahahaha♥
+Serves you right, nyaan♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyahaa!!
+I didn't even touch her and she came, nyaan♥
+Nyahahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;What are we doing with this masochistic pig, nya?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Then let's squeeze him dry, nya♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I wonder, will someone come to rescue you,
+or will we milk you to death first, nyaa?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyahahaha♥
+Pretend to hate it all you like, your cock is still throbbing♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I'll tease your nipple too, nyan♥
+This could very well be your last fuck.
+You better enjoy yourself♥ Kiiiiss♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You seriously couldn't endure this, nyaa?
+Pathetic weakling.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaaha♥
+I'm up next, nyan♥
+My pussy's gonna squeeze you dry♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I must admit, I didn't expect him to abandon his own sister.
+He's surprisingly cold, that one.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;We'll have to abandon this place.
+It'll be a few hours before they can assemble the other hunters.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;We'll need to leave her behind.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;But of course.
+I said we'd leave her behind,
+I didn't say what we would do before then.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I put a cock on you.
+Well? Aren't you happy? It's a gift♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I threw in a lust crest as a little bonus.
+With that on you, pleasure will slowly well up from deep within
+your body all on its own♥ Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Ahahahaha♥
+We should've done this right from the beginning♥
+Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I wonder what that boy will think of his sister once he
+comes back to rescue her♥
+Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Well, we'll be leaving now.
+You just keep writhing around like that♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;There was a rope tied to the balcony handrail.
+She must have escaped from there.
+Haaah...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Right.
+I suppose we have a little more time...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;What a lovely idea♥
+Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;It's not fun when they get drained too quickly♥
+Do your best to endure, ok?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Alright, Lime.
+Make big brother's cock all slimy♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You might not last until help comes for you♥
+Hee hee♥
+Now, put it inside♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Ahaaa♥
+Listen to that pathetic moaning♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Of course, I'll take it out♥
+Your sperm, I mean.
+Until your balls are totally empty♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;If brother was able to escape,
+that's fine by me♥
+Ahaha!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;...!
+(Really? Then... I might be saved?)</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;...
+(Alright. Fine. Just a few hours...
+I'll have to hold out until I'm rescued.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Eh!? Eeeh!?
+Wh-what are you doing!!
+Ah, ah, ahhh!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Hah... Hah...!
+N-no, please...!
+Ahhhhn...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Ah, ahhh!
+F-feels... Good...!
+Oh no...! Ahh! Ahhhn!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Auuuh...♥
+S-something... Coming...♥
+Haaah... Haaaahh...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Ahh, ahhh...♥
+Th... This is...♥
+So strange...♥ Nyaaaaah...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Ahhh! N-no more!!
+Something's coming out!!
+Ahh, ah, ahhhhh♥♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Eyaaaaaahhh♥♥♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Ah, ah, ahhh♥
+It... Won't... Stop...♥
+Nyaaah♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;I can't...♥
+Last... A few hours... Like this...♥
+Ahh, ahh, ahhhhn♥♥♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Cummiiiiiiingg♥♥♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;What are we going to do?
+They're certainly going to return with lots more hunters.
+We can't stay here any longer...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;We got a bit carried away with our game, huh.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;If we're leaving, we can't take her with us.
+Aah, and after all the trouble we took to lock her up.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Waaah♥
+Such a cute reaction-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;That lust crest looks like fun♥
+I want to try one too♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Mmm-♥
+I really wanted to keep you as a semen slave-.
+But that's the way it goes-.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Sure♥
+Sluuuurp♥ Liiick...♥
+Smooch♥ Smooooch♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Ahhh♥ He's already cumming-♥
+Hey, hey-♥
+Doesn't Lily's pussy feel so incredible-?</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Hahaha! Too bad for you.
+(You did it... \n[1]...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Do your worst.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Dammit...
+(But, as long as \n[1] is safe, then I don't mind...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Uuuh... Kuh...
+Stop...</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Ahhhh...!!
+Uwaah...!! Ahhhh...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Ahh, ahh, ahhh...!!
+(F...Feels too good...!!)</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Hah... Hah...!
+(At this rate... I'm not gonna last...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Ahhhh!!
+No!! I'm cumming!!
+Ahh!! Aaaahhh!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Aaaaaaaahhhhhhhhh!!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Aaahhh...!
+I-it's tightening...!!
+It's sucking on me...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Gwaaaaahh!!!!!!!</t>
+  </si>
+  <si>
+    <t>ED3　Semen Slave Siblings</t>
+  </si>
+  <si>
+    <t>Jealous</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;I'm... So jealous...
+I want to play too...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;My money's on \n[1], nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Focus up, \n[1].
+You're dead meat if you lose, nyan.
+Show me that hunter's instinct.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Excellent work, nyan.
+Here's your reward, \n[1], nyan♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Ha ha, fap fap fap♥
+Cum again, nyaa♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Are you serious?
+It makes no sense, a man beating a woman.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Meria.
+No holding back now.
+Squeeze him dry.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Alright, let's begin.
+The first one to cum is the loser.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;How could you lose!?
+Sigh.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Time for your punishment, Meria.
+Prepare yourself.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Ara ara♥
+Little Alsy has completely succumbed to us♥
+Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;\n[1]♥
+How do you feel, looking at your pathetic big brother?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Fufu♥
+You've become just the cutest little thing♥
+Come here♥ I'll make you feel good too♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Yesss♥
+Mistress Lily♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Brotherrr♥
+Eheeheehee♥
+Come here♥ Come fuck me-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;I'm so sorrrry♥
+But, it felt sooo good...♥
+Eheeheehee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Punishment♥
+Here comes my punishment-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Guh... Ahhh...!
+I-I'm begging you...! Aaah! Take it out...!
+Take it out...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;\n[1] and Meria have both become
+such good little children♥
+Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;They're both enjoying themselves.
+The reward and the punishment are both the same...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;You're far too formal.
+Just call me Lime!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Aaaaahhh!
+Mistress Shina♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Fuaaaahh...♥
+So soft...♥
+Mistress... Lime...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Ahahahaha♥ We should've been playing with you
+all this time, not your sister♥
+Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;That's no good, you're spurting way too easily.
+You've got to try harder, Alsy♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Me next-♥
+Look over here, Alsy-♥
+I'll squeeze you between my tits-♥</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -445,28 +835,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -756,19 +1162,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -784,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -792,7 +1200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -800,7 +1208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -808,727 +1216,997 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -1536,7 +2214,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -1544,7 +2222,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -1553,17 +2231,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>